--- a/Codelist Excel Files and Conversion Templates to XML/astmD2488Brdr.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/astmD2488Brdr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DDF744-746C-5946-8B28-72C9749FEC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D83264A-E721-E64C-A532-437816DFC3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,9 +740,6 @@
     <t>classificationCode</t>
   </si>
   <si>
-    <t>DIGGS Soil Classification Codelist Definitions (ASTM D2488 Borderline Classifications)</t>
-  </si>
-  <si>
     <t>Soil classification codes for borderline soils as defined by ASTM-D2488 (visual-manual classification Appendix X3. These codes are used as values for the classificationCode property of the Lithology object where a soil has been identified as having properties
 that do not distinctly place the soil into a specific group. Use of borderline codes is discouraged as instructions in Appendix X3 contradict other directives of the standard.</t>
   </si>
@@ -955,6 +952,9 @@
   </si>
   <si>
     <t>astm2488Brdr</t>
+  </si>
+  <si>
+    <t>DIGGS Soil Classification Definitions (ASTM D2488 Borderline Classifications)</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1741,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1785,13 +1785,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1857,20 +1857,20 @@
         <v/>
       </c>
       <c r="B2" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1879,20 +1879,20 @@
         <v/>
       </c>
       <c r="B3" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>242</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>243</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1901,20 +1901,20 @@
         <v/>
       </c>
       <c r="B4" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1923,20 +1923,20 @@
         <v/>
       </c>
       <c r="B5" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1945,20 +1945,20 @@
         <v/>
       </c>
       <c r="B6" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>251</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>252</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1967,20 +1967,20 @@
         <v/>
       </c>
       <c r="B7" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1989,20 +1989,20 @@
         <v/>
       </c>
       <c r="B8" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2011,20 +2011,20 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2033,20 +2033,20 @@
         <v/>
       </c>
       <c r="B10" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>263</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>264</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2055,20 +2055,20 @@
         <v/>
       </c>
       <c r="B11" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2077,20 +2077,20 @@
         <v/>
       </c>
       <c r="B12" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2099,20 +2099,20 @@
         <v/>
       </c>
       <c r="B13" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2121,20 +2121,20 @@
         <v/>
       </c>
       <c r="B14" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>276</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2143,20 +2143,20 @@
         <v/>
       </c>
       <c r="B15" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2165,20 +2165,20 @@
         <v/>
       </c>
       <c r="B16" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>282</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2187,20 +2187,20 @@
         <v/>
       </c>
       <c r="B17" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>285</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2209,20 +2209,20 @@
         <v/>
       </c>
       <c r="B18" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>293</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>294</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2231,22 +2231,22 @@
         <v/>
       </c>
       <c r="B19" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2255,22 +2255,22 @@
         <v/>
       </c>
       <c r="B20" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>291</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2279,20 +2279,20 @@
         <v/>
       </c>
       <c r="B21" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>297</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2301,20 +2301,20 @@
         <v/>
       </c>
       <c r="B22" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>299</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>300</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2323,22 +2323,22 @@
         <v/>
       </c>
       <c r="B23" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>302</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>303</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2388,10 +2388,10 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2400,10 +2400,10 @@
         <v/>
       </c>
       <c r="B3" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2412,10 +2412,10 @@
         <v/>
       </c>
       <c r="B4" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2424,10 +2424,10 @@
         <v/>
       </c>
       <c r="B5" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2436,10 +2436,10 @@
         <v/>
       </c>
       <c r="B6" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2448,10 +2448,10 @@
         <v/>
       </c>
       <c r="B7" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2460,10 +2460,10 @@
         <v/>
       </c>
       <c r="B8" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2472,10 +2472,10 @@
         <v/>
       </c>
       <c r="B9" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2484,10 +2484,10 @@
         <v/>
       </c>
       <c r="B10" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2496,10 +2496,10 @@
         <v/>
       </c>
       <c r="B11" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2508,10 +2508,10 @@
         <v/>
       </c>
       <c r="B12" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2520,10 +2520,10 @@
         <v/>
       </c>
       <c r="B13" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2532,10 +2532,10 @@
         <v/>
       </c>
       <c r="B14" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2544,10 +2544,10 @@
         <v/>
       </c>
       <c r="B15" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2556,10 +2556,10 @@
         <v/>
       </c>
       <c r="B16" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2568,10 +2568,10 @@
         <v/>
       </c>
       <c r="B17" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2580,10 +2580,10 @@
         <v/>
       </c>
       <c r="B18" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2592,10 +2592,10 @@
         <v/>
       </c>
       <c r="B19" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2604,10 +2604,10 @@
         <v/>
       </c>
       <c r="B20" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2616,10 +2616,10 @@
         <v/>
       </c>
       <c r="B21" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2628,10 +2628,10 @@
         <v/>
       </c>
       <c r="B22" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2640,10 +2640,10 @@
         <v/>
       </c>
       <c r="B23" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
